--- a/Assignment4 data.xlsx
+++ b/Assignment4 data.xlsx
@@ -442,204 +442,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="E11">
         <v>2</v>
       </c>
     </row>
